--- a/biology/Botanique/Traoré_Dossahoua_André/Traoré_Dossahoua_André.xlsx
+++ b/biology/Botanique/Traoré_Dossahoua_André/Traoré_Dossahoua_André.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Traor%C3%A9_Dossahoua_Andr%C3%A9</t>
+          <t>Traoré_Dossahoua_André</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traoré Dossahoua André, né le 1er janvier 1945 à Blességué dans le département de Kouto[1], est un botaniste ivoirien et professeur de botanique à l’Université d'Abidjan, spécialiste des Cyperaceae. Il compte au nombre des premiers botanistes à avoir entrepris l'étude des Cyperaceae en Côte d'Ivoire.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traoré Dossahoua André, né le 1er janvier 1945 à Blességué dans le département de Kouto, est un botaniste ivoirien et professeur de botanique à l’Université d'Abidjan, spécialiste des Cyperaceae. Il compte au nombre des premiers botanistes à avoir entrepris l'étude des Cyperaceae en Côte d'Ivoire.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Traor%C3%A9_Dossahoua_Andr%C3%A9</t>
+          <t>Traoré_Dossahoua_André</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,15 +525,55 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Études
-Traoré Dossahoua André est originaire du nord de la Côte d'Ivoire dans le département de Kouto. C'est là qu'il fera ses études primaires à l'École Privée Catholique de Kouto de 1951 à 1959. Après ses études secondaires au Collège Notre Dame d'Afrique d'Abidjan, il obtient successivement sa Maîtrise de Sciences Naturelles et son Certificat de Biologie de la Reproduction, à l'Université d'Abidjan, puis un CAPES en Sciences Naturelles à l'Ecole Normale Supérieure d'Abidjan. Il obtient par la suite un DEA en Écologie Tropicale, Option Végétale à l'Université d'Abidjan. Il est titulaire d'une thèse de Doctorat de 3e cycle de l'Université d'Abidjan et une thèse de doctorat ès science en Sciences Naturelles, de l'Université Bordeaux Montaigne ex-Université de Bordeaux III, en France[2],[3].
-Appartenance
-Traoré Dossahoua André est également membre des sociétés savantes suivantes :
+          <t>Études</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traoré Dossahoua André est originaire du nord de la Côte d'Ivoire dans le département de Kouto. C'est là qu'il fera ses études primaires à l'École Privée Catholique de Kouto de 1951 à 1959. Après ses études secondaires au Collège Notre Dame d'Afrique d'Abidjan, il obtient successivement sa Maîtrise de Sciences Naturelles et son Certificat de Biologie de la Reproduction, à l'Université d'Abidjan, puis un CAPES en Sciences Naturelles à l'Ecole Normale Supérieure d'Abidjan. Il obtient par la suite un DEA en Écologie Tropicale, Option Végétale à l'Université d'Abidjan. Il est titulaire d'une thèse de Doctorat de 3e cycle de l'Université d'Abidjan et une thèse de doctorat ès science en Sciences Naturelles, de l'Université Bordeaux Montaigne ex-Université de Bordeaux III, en France,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Traoré_Dossahoua_André</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Traor%C3%A9_Dossahoua_Andr%C3%A9</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appartenance</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traoré Dossahoua André est également membre des sociétés savantes suivantes :
 Association Ivoirienne des Sciences Agronomiques (A.I.S.A.) ;
-Association des Sciences, des Arts, des Cultures d'Afrique et des Diasporas Africaines (ASCAD), 2007[4] ;
+Association des Sciences, des Arts, des Cultures d'Afrique et des Diasporas Africaines (ASCAD), 2007 ;
 Association des Botanistes de l'Afrique de l'Ouest (A.B.A.O) ;
-Conseil Scientifique du Centre Suisse de Recherches Scientifiques (CSRS), 2001-2018[5] ;
-Think Tank anti Covid-19  en Côte d'Ivoire pour la recherche et le développement, 2020[6] ;
+Conseil Scientifique du Centre Suisse de Recherches Scientifiques (CSRS), 2001-2018 ;
+Think Tank anti Covid-19  en Côte d'Ivoire pour la recherche et le développement, 2020 ;
 Il fut également : 
 Membre du Comité de lecture des Annales de l'Université Nationale de Côte d'Ivoire ;
 Membre du Comité de Rédaction de la Revue Internationale Agronomie Africaine ;
@@ -535,73 +587,153 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Traor%C3%A9_Dossahoua_Andr%C3%A9</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Traoré_Dossahoua_André</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Traor%C3%A9_Dossahoua_Andr%C3%A9</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Distinctions
-Commandeur du mérite de l'éducation nationale, 26 décembre 2006 ;
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Commandeur du mérite de l'éducation nationale, 26 décembre 2006 ;
 Chevalier de l'Ordre du Mérite Ivoirien, 16 mars 2007, Décret 2007-160 ;
 Chevalier du Mérite de l'Ordre National, 7 août 2010 ;
 Officier de l'Ordre National, 10 janvier 2019.</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Traor%C3%A9_Dossahoua_Andr%C3%A9</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Traoré_Dossahoua_André</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Traor%C3%A9_Dossahoua_Andr%C3%A9</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Projets de recherche
-Traoré Dossahoua André a été Coordonnateur pour l'ABN-RAB dans le projet des zones inondées du Togo et de la Côte d'Ivoire. Entre 1996 et 2000, lors du Projet ECOSYN (Union Européenne - Université Agronomique de Wageningen, Hollande), il a été superviseur pour le volet lianes, dans les forêts de la Guinée au Ghana[7].
-La même année (2000 à 2010), fort du succès des résultats obtenus, il est nommé superviseur du Projet BIOTA W4, en partenariat avec l'Université de Rostock en Allemagne[8].
-Conférences prononcées
-Traoré Dossahoua André a animé plusieurs conférences en rapport avec la préservation de la forêt ivoirienne. Il s'agit par exemple de : Peut-on sauver les blocs forestiers de l'Afrique de l'Ouest ? Le cas de la Côte d'Ivoire (15 février 1991) ; Gestion des ressources naturelles et préservations de la biodiversité floristique, en Côte d'Ivoire (19 mai 1992) ; En ethnobotanique, comment divers taxons végétaux sont sollicités en Côte d'Ivoire et ailleurs dans le monde ? (30 juillet 2019)[9].
-Publications scientifiques
-Traoré Dossahoua est l'auteur de 89 publications scientifiques : 2 thèses de doctorat, 6 articles en auteur unique, 70 en co-auteurs, 11 chapitres de livres.
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Projets de recherche</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traoré Dossahoua André a été Coordonnateur pour l'ABN-RAB dans le projet des zones inondées du Togo et de la Côte d'Ivoire. Entre 1996 et 2000, lors du Projet ECOSYN (Union Européenne - Université Agronomique de Wageningen, Hollande), il a été superviseur pour le volet lianes, dans les forêts de la Guinée au Ghana.
+La même année (2000 à 2010), fort du succès des résultats obtenus, il est nommé superviseur du Projet BIOTA W4, en partenariat avec l'Université de Rostock en Allemagne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Traoré_Dossahoua_André</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Traor%C3%A9_Dossahoua_Andr%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Conférences prononcées</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traoré Dossahoua André a animé plusieurs conférences en rapport avec la préservation de la forêt ivoirienne. Il s'agit par exemple de : Peut-on sauver les blocs forestiers de l'Afrique de l'Ouest ? Le cas de la Côte d'Ivoire (15 février 1991) ; Gestion des ressources naturelles et préservations de la biodiversité floristique, en Côte d'Ivoire (19 mai 1992) ; En ethnobotanique, comment divers taxons végétaux sont sollicités en Côte d'Ivoire et ailleurs dans le monde ? (30 juillet 2019).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Traoré_Dossahoua_André</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Traor%C3%A9_Dossahoua_Andr%C3%A9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Publications scientifiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Traoré Dossahoua est l'auteur de 89 publications scientifiques : 2 thèses de doctorat, 6 articles en auteur unique, 70 en co-auteurs, 11 chapitres de livres.
 Quelques titres
 Forest Climbing Plants of West Africa: Diversity, Ecology and Management. Frans Bongers, Wageningen University, The Netherlands, Marc Parren, Wageningen University, The Netherlands, Dossahua Traoré, University of Cocody, Côte d'Ivoire, 2005, 288 Pages.
 Implications for conservation and management IN Biodiversity of West African forests : an ecological atlas of woody plant species. Frans Bongers, Lourens Poorter, V. Beligne, Hawthorne W.D., François N'Guessan Kouamé, Marc Parren, Dossahua Traoré, Wallingford : CABI, 2004, 87-98.  (ISBN 9780851997346)
